--- a/plots/countries/plot data/Romania.xlsx
+++ b/plots/countries/plot data/Romania.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>34.1245414439476</v>
+        <v>34.1245545436078</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>12.6167076347574</v>
+        <v>12.6025331780265</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>34.1894643903437</v>
+        <v>34.1895957074933</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>54.0969718981582</v>
+        <v>54.0799403820122</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>12.4334495621778</v>
+        <v>12.4321808234278</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>31.9079780204818</v>
+        <v>31.9175205153756</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-26.2393801805669</v>
+        <v>-26.2393801802247</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>28.6594766742502</v>
+        <v>28.6594865236188</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>12.4549045424077</v>
+        <v>12.4386703687226</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>29.1316532919062</v>
+        <v>29.1317457717482</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>34.8066970981912</v>
+        <v>34.7966767366067</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>10.6295609007615</v>
+        <v>10.6280128066904</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>22.8474073224459</v>
+        <v>22.8561938941903</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-26.4879431069474</v>
+        <v>-26.4879431073355</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>25.1607268978227</v>
+        <v>25.1607332014186</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>11.5334779480927</v>
+        <v>11.5246761640037</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>27.2446674055645</v>
+        <v>27.2371709881633</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>35.1203957851469</v>
+        <v>35.1204258278657</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>59.5496846086359</v>
+        <v>59.4803816772786</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>10.8818823123124</v>
+        <v>10.8809435439055</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>19.7062708189148</v>
+        <v>19.7124331417958</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-27.7669908754869</v>
+        <v>-27.7670453646378</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>25.0164718897171</v>
+        <v>25.0164794835803</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>9.35149737478607</v>
+        <v>9.34263519364973</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>26.0123967008402</v>
+        <v>26.006694589589</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>31.6674368639253</v>
+        <v>31.6670898989669</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>58.1574147013683</v>
+        <v>58.1048106757719</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>8.72267087156111</v>
+        <v>8.72238628039946</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>19.6481767368522</v>
+        <v>19.6528780409499</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-28.9438390678754</v>
+        <v>-28.9254512576277</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>24.0969171653834</v>
+        <v>24.0969250448783</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>7.85288545208929</v>
+        <v>7.8436498356142</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>26.5294429331773</v>
+        <v>26.5187593913629</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>29.308887236088</v>
+        <v>29.305162709553</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>59.1420691562919</v>
+        <v>59.0440556953208</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>9.2777686684384</v>
+        <v>9.27745251325313</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>19.7997590536059</v>
+        <v>19.8080783695295</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-28.4329365680721</v>
+        <v>-28.4379786476448</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>24.2356321128132</v>
+        <v>24.2356419621817</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>9.09321698468415</v>
+        <v>9.08292787395927</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>27.4842489263159</v>
+        <v>27.4753441601139</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>28.9131224159025</v>
+        <v>28.9079515645889</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>61.5174597346689</v>
+        <v>61.4319087714204</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>8.53248629924607</v>
+        <v>8.53151171258362</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>22.9254338079174</v>
+        <v>22.932128537753</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-28.229942968671</v>
+        <v>-28.2335153176525</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>5.74104405304008</v>
+        <v>5.71774165505257</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>23.6842529094117</v>
+        <v>23.6842627587802</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>8.91047638285114</v>
+        <v>8.90070114046899</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>26.9881996714149</v>
+        <v>26.9806328366609</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>28.3234237519885</v>
+        <v>28.3189862167195</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>63.6245697921559</v>
+        <v>63.5509108823268</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>11.9474791068861</v>
+        <v>11.9463236970285</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>22.1650038995961</v>
+        <v>22.1722598810684</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-27.5561316740733</v>
+        <v>-27.5586646064724</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>22.2808429561166</v>
+        <v>22.2808528054851</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>11.4160706569382</v>
+        <v>11.4050496761097</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>32.8734465292469</v>
+        <v>32.8661849214723</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>22.5042551237718</v>
+        <v>22.5017671852871</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>57.1595314869171</v>
+        <v>57.0884531915947</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>12.2189480482269</v>
+        <v>12.2166571040154</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>20.5353064116557</v>
+        <v>20.5480748248868</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-28.1770099440012</v>
+        <v>-28.1788077536359</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>21.6776635792427</v>
+        <v>21.677675398485</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>11.4316112036193</v>
+        <v>11.4190790136623</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>31.0603306310027</v>
+        <v>31.0518691314078</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>18.4737720530736</v>
+        <v>18.4724528530276</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>48.5020495159943</v>
+        <v>48.3849239922422</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>11.5263370919313</v>
+        <v>11.5248395620809</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>19.4415911658315</v>
+        <v>19.4582163960027</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-30.1682528880781</v>
+        <v>-30.1695307345945</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>5.84065570576265</v>
+        <v>5.76868975786264</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>20.617356339028</v>
+        <v>20.6173691432072</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>9.23726729996507</v>
+        <v>9.22597857863073</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>30.2699371429874</v>
+        <v>30.2579615931273</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>16.9772292317459</v>
+        <v>16.9761711869811</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>40.642074670677</v>
+        <v>40.5018808842009</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>9.55469724573184</v>
+        <v>9.55397359214449</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>16.8781895956015</v>
+        <v>16.8877942254564</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-29.9871545284848</v>
+        <v>-29.9880645601918</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>5.9113391265966</v>
+        <v>5.8390156242966</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>19.6209772072432</v>
+        <v>19.6209900114223</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>9.61309964706525</v>
+        <v>9.601747173292</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>17.9859196772209</v>
+        <v>17.9863166887989</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>17.6838922270671</v>
+        <v>17.6821571978508</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>43.1356185561571</v>
+        <v>42.9813454789202</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>9.91376609962341</v>
+        <v>9.91340655707983</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>18.0943317674877</v>
+        <v>18.1084373682431</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-30.1006219363582</v>
+        <v>-30.1012717414913</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>6.03690514277271</v>
+        <v>5.9470946443727</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>19.6324840084662</v>
+        <v>19.6324893266426</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>9.03433187491984</v>
+        <v>9.02272666121463</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>16.6961184362049</v>
+        <v>16.6951928423392</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>19.0520660379287</v>
+        <v>19.0498262116758</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>45.5269511175695</v>
+        <v>45.4447716310351</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>11.9257553610813</v>
+        <v>11.9252949144837</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>17.7900202010557</v>
+        <v>17.8052264174688</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-30.9101808786901</v>
+        <v>-30.9106465377365</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>6.14154286725887</v>
+        <v>6.04251074595887</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>20.0803163292384</v>
+        <v>20.0803217623963</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>8.98433047239038</v>
+        <v>8.97296191247543</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>18.6572676472554</v>
+        <v>18.6522304730495</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>19.7905195952321</v>
+        <v>19.7877134060421</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>43.1144490683604</v>
+        <v>42.8878316862132</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>12.2844585091143</v>
+        <v>12.2840204688891</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>18.6754773680807</v>
+        <v>18.6831002558534</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-29.4339123313329</v>
+        <v>-29.4342476422635</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>6.20896698999608</v>
+        <v>6.03250500429608</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>20.5347714234439</v>
+        <v>20.5347769744988</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>10.696419430788</v>
+        <v>10.6824350471181</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>19.396314432515</v>
+        <v>19.3961191770335</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>17.7621596764853</v>
+        <v>17.7585788986871</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>46.2791832973656</v>
+        <v>46.2514958333123</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>12.9315340403147</v>
+        <v>12.9312118275212</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>19.4548821823714</v>
+        <v>19.4610072698733</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-30.0894697816697</v>
+        <v>-30.0897127911667</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>6.48880154802627</v>
+        <v>6.29961353082627</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>20.4137399960812</v>
+        <v>20.4137456667074</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>12.4042056828068</v>
+        <v>12.3892731049681</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>17.8310739609297</v>
+        <v>17.8323135227128</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>18.2086127128827</v>
+        <v>18.2064171483239</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>40.9529775264141</v>
+        <v>41.2452813822134</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>13.5333930612565</v>
+        <v>13.5322621022709</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>21.6169912479795</v>
+        <v>21.625247964405</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-30.0170067337655</v>
+        <v>-30.0171843445112</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>6.60941516937174</v>
+        <v>6.41838403677174</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>20.7989936411661</v>
+        <v>20.7989992513862</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>12.6303794714637</v>
+        <v>12.6160622132172</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>18.2332799043915</v>
+        <v>18.2373118399189</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>16.9547722955968</v>
+        <v>16.9527649834237</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>40.6427234060531</v>
+        <v>41.0227150141864</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>12.5849157638914</v>
+        <v>12.5847591149542</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>21.6192547647548</v>
+        <v>21.6291171754994</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-30.9579632229177</v>
+        <v>-30.9580944649555</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>6.66570816566045</v>
+        <v>6.53410296116045</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>21.0274676027039</v>
+        <v>21.0274723198817</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>13.680938869893</v>
+        <v>13.6617787948011</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>17.5034898682002</v>
+        <v>17.5099104125016</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>16.0941538823938</v>
+        <v>16.0925076130538</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>42.6015602508715</v>
+        <v>43.0439272123206</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>13.0478684626965</v>
+        <v>13.0477219786218</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>21.1794953816952</v>
+        <v>21.1920286073959</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-30.5992090215935</v>
+        <v>-30.5993073513313</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>6.42532745992552</v>
+        <v>6.29874730552553</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>20.8217491527809</v>
+        <v>20.821754026544</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>12.2599930633858</v>
+        <v>12.2427822785531</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>15.7429669925807</v>
+        <v>15.7519452170076</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>18.9610860386734</v>
+        <v>18.960451236974</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>45.5978782014294</v>
+        <v>45.6049524188797</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>13.6511195162066</v>
+        <v>13.650912092734</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>21.4238214126445</v>
+        <v>21.4345349863999</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-31.6640028983662</v>
+        <v>-31.6640778350057</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>6.5687755101344</v>
+        <v>6.4242277998344</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>20.4336618170993</v>
+        <v>20.4336663258841</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>11.238875572446</v>
+        <v>11.220149930039</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>15.3429934718748</v>
+        <v>15.3425854674948</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>20.4766835628371</v>
+        <v>20.4720898515057</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>44.1569855100937</v>
+        <v>44.1436832211836</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>15.2282808806747</v>
+        <v>15.2279715943217</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>18.3266732815385</v>
+        <v>18.3239219460057</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-32.2136827056405</v>
+        <v>-32.2137409782836</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>6.49789688371996</v>
+        <v>6.40241546971996</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>19.838438473252</v>
+        <v>19.8384429602599</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>10.9064682113021</v>
+        <v>10.8901222091876</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>13.9485899276361</v>
+        <v>13.9478023369161</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>14.6671772796733</v>
+        <v>14.6654780898579</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>37.0922138036933</v>
+        <v>37.0694719452723</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>15.1687657069031</v>
+        <v>15.1684885814571</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>12.2509237154576</v>
+        <v>12.2500886194832</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-29.1811559375091</v>
+        <v>-29.1812023147612</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>6.4729107757429</v>
+        <v>6.3997014367429</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>17.799140347077</v>
+        <v>17.7991429866586</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>10.9093806434293</v>
+        <v>10.9094003502665</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>13.3411808928929</v>
+        <v>13.3410154124942</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>14.6901892022912</v>
+        <v>14.6911394314247</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>33.349934589906</v>
+        <v>33.4275699456454</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>14.2201585570543</v>
+        <v>14.220261070861</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>13.9671590844905</v>
+        <v>13.9669020099</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-35.0614493580581</v>
+        <v>-35.0614872095142</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>6.53689786182163</v>
+        <v>6.45743941422163</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>18.0201545864335</v>
+        <v>18.0201573093013</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>11.154996226144</v>
+        <v>11.154126124478</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>12.9327449478753</v>
+        <v>12.9325428088276</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>17.4671322008589</v>
+        <v>17.4647817124071</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>37.8055013919246</v>
+        <v>37.88635694284</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>14.3460450507673</v>
+        <v>14.3460426466773</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>14.5404370758061</v>
+        <v>14.5401218520309</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-35.6447986869097</v>
+        <v>-35.6448303978505</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>5.98815681186843</v>
+        <v>5.90643445296843</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>17.7971554742678</v>
+        <v>17.7971584025638</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>11.7220707891431</v>
+        <v>11.721775940625</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>12.4074116680134</v>
+        <v>12.4069699342162</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>17.775434695651</v>
+        <v>17.7754316037092</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>34.8351482925269</v>
+        <v>34.8717323275689</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>15.2307187703549</v>
+        <v>15.2308397223306</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>13.2962422414282</v>
+        <v>13.2973790162676</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-38.1756491029684</v>
+        <v>-38.1756763596423</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>6.22086531746132</v>
+        <v>6.13812952796132</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>18.365520614061</v>
+        <v>18.3655234737267</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>11.1579149769299</v>
+        <v>11.1558667271824</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>11.7331867973257</v>
+        <v>11.7324847341457</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>15.0351642239728</v>
+        <v>15.0341852140192</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>28.4653767755287</v>
+        <v>28.473497407357</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>15.0472222131037</v>
+        <v>15.0472597318739</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>11.6438159140232</v>
+        <v>11.6446982996526</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-38.2648138300979</v>
+        <v>-38.2648378479919</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>6.50435046301357</v>
+        <v>6.41167643611357</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>18.5192763798943</v>
+        <v>18.5192792153601</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>10.7214556519296</v>
+        <v>10.7192016332358</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>11.3065081130847</v>
+        <v>11.3055967138197</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>14.6895887198127</v>
+        <v>14.6891007299857</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>28.4658779006042</v>
+        <v>28.4776078126554</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>15.5971313987091</v>
+        <v>15.597284159373</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>12.4225187416419</v>
+        <v>12.4230693363529</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-49.2553298702563</v>
+        <v>-49.255351487364</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>6.48141738924154</v>
+        <v>6.37942507014154</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>18.7653621867236</v>
+        <v>18.7653650660782</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>11.0309356058771</v>
+        <v>11.0295440078152</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>11.026395848537</v>
+        <v>11.025305473832</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>13.1873478624048</v>
+        <v>13.1845301866897</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>28.2642346903383</v>
+        <v>28.2692332745614</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>15.7065560282555</v>
+        <v>15.7068577097809</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>12.4648443478135</v>
+        <v>12.4656044924727</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-48.4122545189945</v>
+        <v>-48.4122743380092</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>6.47437591328285</v>
+        <v>6.35565577118285</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>18.6481968145818</v>
+        <v>18.6481997441385</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>11.2070642806064</v>
+        <v>11.2057773084102</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>10.5317511810178</v>
+        <v>10.5310323929128</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>12.9361350727529</v>
+        <v>12.9314428198233</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>25.7664732831363</v>
+        <v>25.7721299107131</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>16.7923124401166</v>
+        <v>16.7926371919568</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>12.5907770833158</v>
+        <v>12.5914396639414</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-50.5118226875271</v>
+        <v>-50.5118411306603</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>6.49944660830016</v>
+        <v>6.36644117840016</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>18.7927136191371</v>
+        <v>18.7927163605021</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>11.9635776212196</v>
+        <v>11.9626719513877</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>10.296381472251</v>
+        <v>10.295700654246</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>13.0988217855824</v>
+        <v>13.0937425754069</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>26.5881018123569</v>
+        <v>26.5969792060481</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>17.9350384041194</v>
+        <v>17.9350383435736</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>12.7115181864499</v>
+        <v>12.7121298550665</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-48.7087906337968</v>
+        <v>-48.7088080026362</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>6.54641955487575</v>
+        <v>6.41508221377575</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>19.3617223427953</v>
+        <v>19.3617248976427</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>12.5325823670064</v>
+        <v>12.5315580933807</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>10.1039800426911</v>
+        <v>10.1022603389361</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>13.7597849415392</v>
+        <v>13.7596108414364</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>24.9914200821658</v>
+        <v>24.9974908144022</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>18.4273533651739</v>
+        <v>18.4275431105811</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>12.9955377962078</v>
+        <v>12.996609638246</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-46.7704216267693</v>
+        <v>-46.7704381493076</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>6.50106843323027</v>
+        <v>6.36829269503027</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>19.0888570437896</v>
+        <v>19.0888597532918</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>12.5479048009143</v>
+        <v>12.5451524473625</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>10.3007747855386</v>
+        <v>10.2989332753786</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>13.3713057458956</v>
+        <v>13.3711838410914</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>21.6982686027599</v>
+        <v>21.7035500042596</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>18.9170094986183</v>
+        <v>18.9172063886614</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>12.9392796255192</v>
+        <v>12.9401785693927</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-46.7337805990251</v>
+        <v>-46.7337964300182</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>6.55502261500477</v>
+        <v>6.44687065990477</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>18.6303939639627</v>
+        <v>18.6303964614277</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>12.7481516769116</v>
+        <v>12.7458208700582</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>9.61583286645237</v>
+        <v>9.61363833579237</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>14.4750681780534</v>
+        <v>14.4749189050724</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>18.1746513370257</v>
+        <v>18.1790938642089</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>18.3576300340134</v>
+        <v>18.3579520035208</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>13.0685081581944</v>
+        <v>13.0691899894719</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-49.1103228945561</v>
+        <v>-49.1103381403428</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>6.53766281813195</v>
+        <v>6.45020587424015</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>18.9853167855948</v>
+        <v>18.9853191155023</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>14.5139007834512</v>
+        <v>14.5113079141709</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>9.41307396955984</v>
+        <v>9.41304762201483</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>14.8216607907141</v>
+        <v>14.8179863448287</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>18.5647887705499</v>
+        <v>18.565304960559</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>19.5572876232724</v>
+        <v>19.5577293128663</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>13.1215486232612</v>
+        <v>13.1223937356244</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-48.1489390509583</v>
+        <v>-47.7918890191198</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>6.53103555875638</v>
+        <v>6.40191202861638</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>17.9877335266288</v>
+        <v>18.0008221440995</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>13.4588601800144</v>
+        <v>13.4563680876097</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>9.1757561241988</v>
+        <v>9.17595055678519</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>13.201184673246</v>
+        <v>13.1501164072156</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>18.0716407524864</v>
+        <v>18.0043790981943</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>21.1477567721643</v>
+        <v>21.1585187612106</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>10.3796536106154</v>
+        <v>10.3807507877174</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-46.4664003870015</v>
+        <v>-45.6861164916203</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>6.55057153548568</v>
+        <v>6.34034952261577</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>17.8912253118946</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>13.2490599575628</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>8.85598150314937</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>11.4706489466787</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>15.5320701595336</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>22.1247625554255</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>8.41914170440031</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-46.4247862318603</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>6.31956223369993</v>
       </c>
     </row>
   </sheetData>
